--- a/Documentacion/Roles table.xlsx
+++ b/Documentacion/Roles table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="20730" windowHeight="9795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Roles</t>
   </si>
@@ -166,6 +166,48 @@
   </si>
   <si>
     <t>Authorice technicians,flights, asign  Resouce Manager</t>
+  </si>
+  <si>
+    <t>Tech Status</t>
+  </si>
+  <si>
+    <t>PENDING APPROVAL</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>When the technician is assigned to PO</t>
+  </si>
+  <si>
+    <t>ASSIGNED</t>
+  </si>
+  <si>
+    <t>When the technician is approved by the manager FieldManager</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>When the technician is rejected by the manager FieldManager</t>
+  </si>
+  <si>
+    <t>DEMOBILIZED</t>
+  </si>
+  <si>
+    <t>BENCH</t>
+  </si>
+  <si>
+    <t>When the technician has not assigned to PO</t>
+  </si>
+  <si>
+    <t>When a technician is demobilized of PO but he worked in the PO</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
+    <t>DENIED</t>
   </si>
 </sst>
 </file>
@@ -235,13 +277,19 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -539,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -796,12 +844,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B3:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Documentacion/Roles table.xlsx
+++ b/Documentacion/Roles table.xlsx
@@ -847,7 +847,7 @@
   <dimension ref="B3:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Documentacion/Roles table.xlsx
+++ b/Documentacion/Roles table.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Axis\Axis website\axis\Documentacion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="20730" windowHeight="9795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="18945" windowHeight="6435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>Roles</t>
   </si>
@@ -208,13 +213,37 @@
   </si>
   <si>
     <t>DENIED</t>
+  </si>
+  <si>
+    <t>STATUS BY PO</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>STATUS BY JOB</t>
+  </si>
+  <si>
+    <t>HOLD</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>All POS are woks status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,10 +314,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -297,6 +326,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,7 +380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,9 +412,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,6 +464,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,14 +657,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
@@ -601,7 +674,7 @@
     <col min="7" max="7" width="50.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -645,7 +718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -668,7 +741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -691,7 +764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -714,7 +787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -737,7 +810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -760,7 +833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -783,7 +856,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -806,7 +879,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -843,29 +916,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="7"/>
       <c r="D3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -876,7 +949,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -887,32 +960,32 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -923,6 +996,62 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -935,12 +1064,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentacion/Roles table.xlsx
+++ b/Documentacion/Roles table.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>Roles</t>
   </si>
@@ -237,6 +237,24 @@
   </si>
   <si>
     <t>All POS are woks status</t>
+  </si>
+  <si>
+    <t>STATUS BY TRUCKS</t>
+  </si>
+  <si>
+    <t>PENDING ASSIGNMENT</t>
+  </si>
+  <si>
+    <t>CUANDO SE CREA UNA PO</t>
+  </si>
+  <si>
+    <t>CUANDO EL RESOUCE MANAGER ASIGNA EL NUMERO DE CAMIONES</t>
+  </si>
+  <si>
+    <t>CUANDO EL FIELD OPS ACEPTA</t>
+  </si>
+  <si>
+    <t>CUANDO EL FIELD OPS RECHAZA, GUARDAR COMENTARIO</t>
   </si>
 </sst>
 </file>
@@ -306,7 +324,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -319,6 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -917,10 +936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E23"/>
+  <dimension ref="B3:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1019,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D13" t="s">
@@ -1028,7 +1047,7 @@
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="C19" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1053,6 +1072,43 @@
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1060,6 +1116,7 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentacion/Roles table.xlsx
+++ b/Documentacion/Roles table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Axis\Axis website\axis\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\axis\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>Roles</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>CUANDO EL FIELD OPS RECHAZA, GUARDAR COMENTARIO</t>
+  </si>
+  <si>
+    <t>STATUS BY TRUCKS DETAILS</t>
+  </si>
+  <si>
+    <t>PENDING RENT</t>
   </si>
 </sst>
 </file>
@@ -334,10 +340,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -936,10 +942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E29"/>
+  <dimension ref="B3:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,10 +955,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="8"/>
       <c r="D3" t="s">
         <v>52</v>
       </c>
@@ -1019,7 +1025,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D13" t="s">
@@ -1047,7 +1053,7 @@
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1075,7 +1081,7 @@
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1109,6 +1115,16 @@
       </c>
       <c r="D29" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/Roles table.xlsx
+++ b/Documentacion/Roles table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\axis\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Axis\Axis website\axis\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>Roles</t>
   </si>
@@ -255,12 +255,6 @@
   </si>
   <si>
     <t>CUANDO EL FIELD OPS RECHAZA, GUARDAR COMENTARIO</t>
-  </si>
-  <si>
-    <t>STATUS BY TRUCKS DETAILS</t>
-  </si>
-  <si>
-    <t>PENDING RENT</t>
   </si>
 </sst>
 </file>
@@ -340,10 +334,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -942,10 +936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E33"/>
+  <dimension ref="B3:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,10 +949,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7"/>
       <c r="D3" t="s">
         <v>52</v>
       </c>
@@ -1025,7 +1019,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D13" t="s">
@@ -1053,7 +1047,7 @@
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1081,7 +1075,7 @@
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1115,16 +1109,6 @@
       </c>
       <c r="D29" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/Roles table.xlsx
+++ b/Documentacion/Roles table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="18945" windowHeight="6435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="18945" windowHeight="6435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -149,9 +149,6 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>admin@axisrg.com</t>
-  </si>
-  <si>
     <t>Advance</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>CUANDO EL FIELD OPS RECHAZA, GUARDAR COMENTARIO</t>
+  </si>
+  <si>
+    <t>alavalle@axisrg.com</t>
   </si>
 </sst>
 </file>
@@ -334,10 +334,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +727,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
@@ -757,7 +757,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -872,7 +872,7 @@
         <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -949,12 +949,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -962,10 +962,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -973,10 +973,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -984,10 +984,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -995,13 +995,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1009,106 +1009,106 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="8" t="s">
-        <v>64</v>
+      <c r="C13" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="8" t="s">
-        <v>67</v>
+      <c r="C19" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="s">
-        <v>72</v>
+      <c r="C25" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
         <v>73</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/Roles table.xlsx
+++ b/Documentacion/Roles table.xlsx
@@ -680,7 +680,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentacion/Roles table.xlsx
+++ b/Documentacion/Roles table.xlsx
@@ -680,7 +680,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
